--- a/Test_metrics/test_res.xlsx
+++ b/Test_metrics/test_res.xlsx
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="B694" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695">
@@ -5994,7 +5994,7 @@
         <v>0</v>
       </c>
       <c r="B695" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696">
@@ -6002,7 +6002,7 @@
         <v>0</v>
       </c>
       <c r="B696" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697">
@@ -6010,7 +6010,7 @@
         <v>0</v>
       </c>
       <c r="B697" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698">
@@ -6018,7 +6018,7 @@
         <v>0</v>
       </c>
       <c r="B698" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699">
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="B699" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700">
@@ -6034,7 +6034,7 @@
         <v>0</v>
       </c>
       <c r="B700" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701">
@@ -6042,7 +6042,7 @@
         <v>0</v>
       </c>
       <c r="B701" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702">
@@ -6050,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="B702" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703">
@@ -6058,7 +6058,7 @@
         <v>0</v>
       </c>
       <c r="B703" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704">
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="B704" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705">
@@ -6074,7 +6074,7 @@
         <v>0</v>
       </c>
       <c r="B705" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706">
@@ -6082,7 +6082,7 @@
         <v>0</v>
       </c>
       <c r="B706" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707">
@@ -6090,7 +6090,7 @@
         <v>0</v>
       </c>
       <c r="B707" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708">
@@ -6098,7 +6098,7 @@
         <v>0</v>
       </c>
       <c r="B708" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709">
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="B709" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710">
@@ -6114,7 +6114,7 @@
         <v>0</v>
       </c>
       <c r="B710" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711">
@@ -6122,7 +6122,7 @@
         <v>0</v>
       </c>
       <c r="B711" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712">
@@ -6130,7 +6130,7 @@
         <v>0</v>
       </c>
       <c r="B712" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713">
@@ -6138,7 +6138,7 @@
         <v>0</v>
       </c>
       <c r="B713" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714">
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="B714" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715">
@@ -6154,7 +6154,7 @@
         <v>0</v>
       </c>
       <c r="B715" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716">
@@ -6162,7 +6162,7 @@
         <v>0</v>
       </c>
       <c r="B716" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717">
@@ -6170,7 +6170,7 @@
         <v>0</v>
       </c>
       <c r="B717" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718">
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="B718" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="B719" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720">
@@ -6194,7 +6194,7 @@
         <v>0</v>
       </c>
       <c r="B720" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721">
@@ -6202,7 +6202,7 @@
         <v>0</v>
       </c>
       <c r="B721" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722">
@@ -6210,7 +6210,7 @@
         <v>0</v>
       </c>
       <c r="B722" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723">
@@ -6218,7 +6218,7 @@
         <v>0</v>
       </c>
       <c r="B723" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724">
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="B724" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725">
@@ -6234,7 +6234,7 @@
         <v>0</v>
       </c>
       <c r="B725" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726">
@@ -6242,7 +6242,7 @@
         <v>0</v>
       </c>
       <c r="B726" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727">
@@ -6250,7 +6250,7 @@
         <v>0</v>
       </c>
       <c r="B727" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728">
@@ -6258,7 +6258,7 @@
         <v>0</v>
       </c>
       <c r="B728" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729">
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="B729" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730">
@@ -6274,7 +6274,7 @@
         <v>0</v>
       </c>
       <c r="B730" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731">
@@ -6282,7 +6282,7 @@
         <v>0</v>
       </c>
       <c r="B731" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732">
@@ -6290,7 +6290,7 @@
         <v>0</v>
       </c>
       <c r="B732" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733">
@@ -6298,7 +6298,7 @@
         <v>0</v>
       </c>
       <c r="B733" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="B734" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735">
@@ -6314,7 +6314,7 @@
         <v>0</v>
       </c>
       <c r="B735" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736">
@@ -6322,7 +6322,7 @@
         <v>0</v>
       </c>
       <c r="B736" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737">
@@ -6330,7 +6330,7 @@
         <v>0</v>
       </c>
       <c r="B737" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738">
@@ -6338,7 +6338,7 @@
         <v>0</v>
       </c>
       <c r="B738" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739">
@@ -6346,7 +6346,7 @@
         <v>0</v>
       </c>
       <c r="B739" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740">
@@ -6354,7 +6354,7 @@
         <v>0</v>
       </c>
       <c r="B740" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741">
@@ -6362,7 +6362,7 @@
         <v>0</v>
       </c>
       <c r="B741" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742">
@@ -6370,7 +6370,7 @@
         <v>0</v>
       </c>
       <c r="B742" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743">
@@ -6378,7 +6378,7 @@
         <v>0</v>
       </c>
       <c r="B743" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744">
@@ -6386,7 +6386,7 @@
         <v>0</v>
       </c>
       <c r="B744" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745">
@@ -6394,7 +6394,7 @@
         <v>0</v>
       </c>
       <c r="B745" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746">
@@ -6402,7 +6402,7 @@
         <v>0</v>
       </c>
       <c r="B746" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747">
@@ -6410,7 +6410,7 @@
         <v>0</v>
       </c>
       <c r="B747" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748">
@@ -6418,7 +6418,7 @@
         <v>0</v>
       </c>
       <c r="B748" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749">
@@ -6426,7 +6426,7 @@
         <v>0</v>
       </c>
       <c r="B749" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750">
@@ -6434,7 +6434,7 @@
         <v>0</v>
       </c>
       <c r="B750" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751">
@@ -6442,7 +6442,7 @@
         <v>0</v>
       </c>
       <c r="B751" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752">
@@ -6450,7 +6450,7 @@
         <v>0</v>
       </c>
       <c r="B752" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753">
@@ -6458,7 +6458,7 @@
         <v>0</v>
       </c>
       <c r="B753" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754">
@@ -6466,7 +6466,7 @@
         <v>0</v>
       </c>
       <c r="B754" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755">
@@ -6474,7 +6474,7 @@
         <v>0</v>
       </c>
       <c r="B755" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756">
@@ -6482,7 +6482,7 @@
         <v>0</v>
       </c>
       <c r="B756" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757">
@@ -6490,7 +6490,7 @@
         <v>0</v>
       </c>
       <c r="B757" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758">
@@ -6498,7 +6498,7 @@
         <v>0</v>
       </c>
       <c r="B758" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759">
@@ -6506,7 +6506,7 @@
         <v>0</v>
       </c>
       <c r="B759" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760">
@@ -6514,7 +6514,7 @@
         <v>0</v>
       </c>
       <c r="B760" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761">
@@ -6522,7 +6522,7 @@
         <v>0</v>
       </c>
       <c r="B761" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762">
@@ -6530,7 +6530,7 @@
         <v>0</v>
       </c>
       <c r="B762" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763">
@@ -6538,7 +6538,7 @@
         <v>0</v>
       </c>
       <c r="B763" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764">
@@ -6546,7 +6546,7 @@
         <v>0</v>
       </c>
       <c r="B764" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765">
@@ -6554,7 +6554,7 @@
         <v>0</v>
       </c>
       <c r="B765" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766">
@@ -6562,7 +6562,7 @@
         <v>0</v>
       </c>
       <c r="B766" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767">
@@ -6570,7 +6570,7 @@
         <v>0</v>
       </c>
       <c r="B767" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768">
@@ -6578,7 +6578,7 @@
         <v>0</v>
       </c>
       <c r="B768" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769">
@@ -6586,7 +6586,7 @@
         <v>0</v>
       </c>
       <c r="B769" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770">
@@ -6594,7 +6594,7 @@
         <v>0</v>
       </c>
       <c r="B770" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771">
@@ -6602,7 +6602,7 @@
         <v>0</v>
       </c>
       <c r="B771" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772">
@@ -6610,7 +6610,7 @@
         <v>0</v>
       </c>
       <c r="B772" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773">
@@ -6618,7 +6618,7 @@
         <v>0</v>
       </c>
       <c r="B773" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774">
@@ -6626,7 +6626,7 @@
         <v>0</v>
       </c>
       <c r="B774" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775">
@@ -6634,7 +6634,7 @@
         <v>0</v>
       </c>
       <c r="B775" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776">
@@ -6642,7 +6642,7 @@
         <v>0</v>
       </c>
       <c r="B776" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777">
@@ -6650,7 +6650,7 @@
         <v>0</v>
       </c>
       <c r="B777" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778">
@@ -6658,7 +6658,7 @@
         <v>0</v>
       </c>
       <c r="B778" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779">
@@ -6666,7 +6666,7 @@
         <v>0</v>
       </c>
       <c r="B779" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780">
@@ -6674,7 +6674,7 @@
         <v>0</v>
       </c>
       <c r="B780" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781">
@@ -6682,7 +6682,7 @@
         <v>0</v>
       </c>
       <c r="B781" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782">
@@ -6690,7 +6690,7 @@
         <v>0</v>
       </c>
       <c r="B782" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783">
@@ -6698,7 +6698,7 @@
         <v>0</v>
       </c>
       <c r="B783" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784">
@@ -6706,7 +6706,7 @@
         <v>0</v>
       </c>
       <c r="B784" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785">
@@ -6714,7 +6714,7 @@
         <v>0</v>
       </c>
       <c r="B785" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786">
@@ -6722,7 +6722,7 @@
         <v>0</v>
       </c>
       <c r="B786" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787">
@@ -6730,7 +6730,7 @@
         <v>0</v>
       </c>
       <c r="B787" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788">
@@ -6738,7 +6738,7 @@
         <v>0</v>
       </c>
       <c r="B788" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789">
@@ -6746,7 +6746,7 @@
         <v>0</v>
       </c>
       <c r="B789" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790">
@@ -6754,7 +6754,7 @@
         <v>0</v>
       </c>
       <c r="B790" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791">
@@ -6762,7 +6762,7 @@
         <v>0</v>
       </c>
       <c r="B791" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792">
@@ -6770,7 +6770,7 @@
         <v>0</v>
       </c>
       <c r="B792" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793">
@@ -6778,7 +6778,7 @@
         <v>0</v>
       </c>
       <c r="B793" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794">
@@ -6786,7 +6786,7 @@
         <v>0</v>
       </c>
       <c r="B794" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795">
@@ -6794,7 +6794,7 @@
         <v>0</v>
       </c>
       <c r="B795" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796">
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="B796" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797">
@@ -6810,7 +6810,7 @@
         <v>0</v>
       </c>
       <c r="B797" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798">
